--- a/data/trans_bre/P16A_R-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P16A_R-Clase-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>2.099896013870809</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>1.327755909350437</v>
+        <v>1.327755909350435</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.7516691900716472</v>
@@ -649,7 +649,7 @@
         <v>0.3443038823667021</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.1651081427326037</v>
+        <v>0.1651081427326035</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1078566375888798</v>
+        <v>-0.2940682019472906</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-1.167020512276336</v>
+        <v>-0.8810181006803052</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.270089353054114</v>
+        <v>-1.673769734256575</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-1.698836410604899</v>
+        <v>-1.794109107310593</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.003084783235921407</v>
+        <v>-0.08343217165927024</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.2314024868009043</v>
+        <v>-0.1891147067275597</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.1944746946675243</v>
+        <v>-0.2174061715251431</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.1738395533903796</v>
+        <v>-0.1862107286329945</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>7.225440328972077</v>
+        <v>6.874572105749727</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>6.683950981782896</v>
+        <v>7.226916639463307</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>6.322282082250412</v>
+        <v>5.873766939987897</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>4.426823315983589</v>
+        <v>4.750151147398695</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>2.481245730952102</v>
+        <v>2.24078365647484</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>2.017910636105279</v>
+        <v>2.225512282013671</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>1.385793539421627</v>
+        <v>1.341732582556103</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.682399493122148</v>
+        <v>0.686335190113355</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>0.7447177476186617</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>6.389556141441198</v>
+        <v>6.389556141441196</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>1.058307515219761</v>
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.9563181041259293</v>
+        <v>1.249481550000194</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-0.760983532109931</v>
+        <v>-0.8052970203455575</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-2.817651433577804</v>
+        <v>-2.794983678945818</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2.862384943511584</v>
+        <v>2.876290089444011</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.09270123207368346</v>
+        <v>0.1348087262974617</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.1362186796910235</v>
+        <v>-0.1454705755613634</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.3762971995680487</v>
+        <v>-0.4098895654860682</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.3398195556020804</v>
+        <v>0.3092872305545492</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>8.173825132866432</v>
+        <v>8.29492977029417</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>7.419942939291765</v>
+        <v>7.435920731811593</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>4.686082640181991</v>
+        <v>4.231647446430837</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>9.505409561115567</v>
+        <v>10.15400342869868</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>2.959644175551089</v>
+        <v>2.867439633286711</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>2.019834648041739</v>
+        <v>1.983674802861486</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.195910914536873</v>
+        <v>1.07559012408169</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.879924767096155</v>
+        <v>2.038934547174973</v>
       </c>
     </row>
     <row r="10">
@@ -849,7 +849,7 @@
         <v>1.954000265440753</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.9904235761978811</v>
+        <v>0.9904235761978814</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>2.702240158713984</v>
+        <v>2.405917731124947</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>2.919971893889012</v>
+        <v>2.50836939790719</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>5.522281293729378</v>
+        <v>6.349108457400231</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>5.284576061087163</v>
+        <v>5.014900725326326</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.4508843850512414</v>
+        <v>0.3431652321909975</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2350107011354197</v>
+        <v>0.2179594709482822</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7544616825476186</v>
+        <v>0.8190505639855186</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.4275923315250193</v>
+        <v>0.3896231213025259</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>13.25956149483323</v>
+        <v>13.74614792030649</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>13.93796187269908</v>
+        <v>13.30280149727497</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>18.42450471688298</v>
+        <v>19.40116544353763</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>16.30947457941818</v>
+        <v>16.1744320152519</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>3.075893705743709</v>
+        <v>3.358367498782857</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>1.612208602136445</v>
+        <v>1.610640508083965</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>3.857847336623462</v>
+        <v>3.8666992515305</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>1.9448152961519</v>
+        <v>1.908259122115044</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>6.086371058833159</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>6.107665282856618</v>
+        <v>6.10766528285662</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>1.000747679311141</v>
@@ -949,7 +949,7 @@
         <v>0.8661931746170135</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.6515216146559636</v>
+        <v>0.6515216146559638</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>2.264133741207133</v>
+        <v>2.280325826381807</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>3.386562619509596</v>
+        <v>3.640932045706234</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3.226610302050761</v>
+        <v>3.442510341102566</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3.699077257249782</v>
+        <v>3.444618381676084</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.4094867506743367</v>
+        <v>0.3973027461649165</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4389172127765838</v>
+        <v>0.4140317943194126</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4186712813957908</v>
+        <v>0.4311432064891815</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.3498341666278849</v>
+        <v>0.3172533093501299</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>7.314659904953158</v>
+        <v>7.610484339756568</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>9.611717735356207</v>
+        <v>9.623786112334036</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>9.094803033230821</v>
+        <v>8.88386414919222</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>8.817996571826983</v>
+        <v>8.674833801713435</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.798909958538281</v>
+        <v>1.815614721300916</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.627868513654999</v>
+        <v>1.533351045870933</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.549927897939586</v>
+        <v>1.458028323767147</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>1.062973908560069</v>
+        <v>1.02003147102831</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>14.00858961501944</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>14.16981631917622</v>
+        <v>14.16981631917621</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.7794091487585758</v>
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>1.60747194110332</v>
+        <v>1.584814062578486</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>10.4596117820417</v>
+        <v>10.46321982342869</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>9.789052010896969</v>
+        <v>10.29957218941465</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>10.64935841633393</v>
+        <v>10.50696575967653</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.1442776098804293</v>
+        <v>0.136375924615349</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>1.412375867134852</v>
+        <v>1.33767840643116</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>1.051329845114015</v>
+        <v>1.036932895103118</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.8426495823363317</v>
+        <v>0.8615261864981308</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>10.03027419894667</v>
+        <v>9.767705279108363</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>17.58891729384015</v>
+        <v>17.90358246061304</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>17.57442449254716</v>
+        <v>17.80806397388629</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>17.55101752520854</v>
+        <v>17.43299194577183</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1.904762216988003</v>
+        <v>1.747226228699439</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>4.054428736470927</v>
+        <v>3.927770148624273</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>2.873505004696104</v>
+        <v>2.796176926983475</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>2.158212021600658</v>
+        <v>2.128720657610702</v>
       </c>
     </row>
     <row r="19">
@@ -1137,7 +1137,7 @@
         <v>15.46260316674352</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>13.87486029730507</v>
+        <v>13.87486029730508</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>2.55506311272755</v>
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>5.636872499266786</v>
+        <v>5.936045311427928</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>11.57194566834909</v>
+        <v>11.85493814590373</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>12.50207148575227</v>
+        <v>12.60721455831507</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>8.295061875600002</v>
+        <v>8.43539462529151</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.9787241686905755</v>
+        <v>0.9181140980008374</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>1.949571238679604</v>
+        <v>2.087715257573087</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>3.343508514773335</v>
+        <v>3.195726586731463</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.6895764256274242</v>
+        <v>0.6660522014565411</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>11.57664110988318</v>
+        <v>11.37383562756633</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>18.07749180352332</v>
+        <v>18.24107093532639</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>18.33954364801131</v>
+        <v>18.34167398814738</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>17.54348061437499</v>
+        <v>17.52315750966534</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>6.397002072052858</v>
+        <v>6.006554721964624</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>16.26278011365983</v>
+        <v>17.0486631600415</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>26.41656628235291</v>
+        <v>25.63804456019016</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>5.521602630220432</v>
+        <v>5.567962130785713</v>
       </c>
     </row>
     <row r="22">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>4.786931304383535</v>
+        <v>4.90146863059364</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>7.36568702925306</v>
+        <v>7.34335222904495</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>7.445533663863032</v>
+        <v>7.528441289409407</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>7.502049110910917</v>
+        <v>7.468472248517369</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.8359845500912155</v>
+        <v>0.8868278477363367</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>1.005556542206035</v>
+        <v>1.00608148628032</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>1.072183498554116</v>
+        <v>1.096974352898338</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>0.7727105787790982</v>
+        <v>0.7713493940828314</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>7.494746156865493</v>
+        <v>7.555103690818505</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>10.5278145595121</v>
+        <v>10.55054845735501</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>10.4257502609583</v>
+        <v>10.62463269149047</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>10.26423235668265</v>
+        <v>10.36031057600563</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>1.695779481066168</v>
+        <v>1.713582267278875</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>1.800257258944152</v>
+        <v>1.799074498771064</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>1.842738545237427</v>
+        <v>1.904642046534021</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>1.279304366849011</v>
+        <v>1.271140989799826</v>
       </c>
     </row>
     <row r="25">
